--- a/Ds_atributes_Anime_1.xlsx
+++ b/Ds_atributes_Anime_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganya\PycharmProjects\Anime-DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>series</t>
   </si>
   <si>
-    <t>age restrictions</t>
-  </si>
-  <si>
     <t>origin</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>studio</t>
+  </si>
+  <si>
+    <t>views</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -458,22 +458,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -481,37 +481,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -520,37 +520,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -559,37 +559,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -598,37 +598,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -637,37 +637,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -676,37 +676,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,37 +715,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -754,37 +754,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -793,37 +793,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,37 +832,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -871,37 +871,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -949,37 +949,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -988,37 +988,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1027,37 +1027,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">

--- a/Ds_atributes_Anime_1.xlsx
+++ b/Ds_atributes_Anime_1.xlsx
@@ -50,9 +50,6 @@
     <t>series</t>
   </si>
   <si>
-    <t>origin</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>views</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -481,37 +481,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -520,37 +520,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -559,37 +559,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -598,37 +598,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -637,37 +637,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -676,37 +676,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,37 +715,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -754,37 +754,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -793,37 +793,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,37 +832,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -871,37 +871,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -949,37 +949,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -988,37 +988,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1027,37 +1027,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">

--- a/Ds_atributes_Anime_1.xlsx
+++ b/Ds_atributes_Anime_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganya\PycharmProjects\Anime-DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
